--- a/public/formulario_historico.xlsx
+++ b/public/formulario_historico.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>1 - 2</t>
+  </si>
+  <si>
+    <t>5c5479fba394015b5e3941s1</t>
+  </si>
+  <si>
+    <t>5c5479fba394015b5e3941s3</t>
+  </si>
+  <si>
+    <t>2c5479fba394015b5e3942s7</t>
+  </si>
+  <si>
+    <t>NELSON SDASDAPARICIO JURADO</t>
   </si>
 </sst>
 </file>
@@ -717,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -796,28 +808,28 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
@@ -825,20 +837,20 @@
       <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="O2" t="s">
+        <v>28</v>
       </c>
       <c r="P2" t="s">
         <v>28</v>
@@ -861,28 +873,28 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
         <v>28</v>
@@ -890,20 +902,20 @@
       <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
-        <v>32</v>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="L3" t="s">
         <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3" t="s">
         <v>28</v>
@@ -926,27 +938,27 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
         <v>52</v>
       </c>
       <c r="I4" t="s">
@@ -959,16 +971,16 @@
         <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
         <v>28</v>
@@ -980,9 +992,6 @@
         <v>34</v>
       </c>
       <c r="S4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" t="s">
         <v>28</v>
       </c>
       <c r="U4" t="s">
@@ -991,27 +1000,27 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
+      <c r="D5" t="s">
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I5" t="s">
@@ -1024,16 +1033,16 @@
         <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
@@ -1056,28 +1065,28 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -1110,10 +1119,10 @@
         <v>34</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="U6" t="s">
         <v>28</v>
@@ -1121,28 +1130,28 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
         <v>28</v>
@@ -1154,7 +1163,7 @@
         <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
@@ -1163,7 +1172,7 @@
         <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -1175,10 +1184,10 @@
         <v>34</v>
       </c>
       <c r="S7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
         <v>28</v>
@@ -1186,28 +1195,28 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
@@ -1219,7 +1228,7 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
         <v>30</v>
@@ -1251,28 +1260,28 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
         <v>28</v>
@@ -1284,16 +1293,16 @@
         <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
         <v>32</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P9" t="s">
         <v>28</v>
@@ -1316,28 +1325,28 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
         <v>28</v>
@@ -1349,7 +1358,7 @@
         <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
         <v>32</v>
@@ -1358,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P10" t="s">
         <v>28</v>
@@ -1381,10 +1390,10 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -1396,13 +1405,13 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
@@ -1411,19 +1420,19 @@
         <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
         <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
         <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P11" t="s">
         <v>28</v>
@@ -1441,70 +1450,327 @@
         <v>28</v>
       </c>
       <c r="U11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>99</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>100</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>101</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>102</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
         <v>102</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F17" t="s">
         <v>102</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G17" t="s">
         <v>103</v>
       </c>
-      <c r="H14">
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="I14">
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J17" t="s">
         <v>102</v>
       </c>
     </row>

--- a/public/formulario_historico.xlsx
+++ b/public/formulario_historico.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>NELSON SDASDAPARICIO JURADO</t>
+  </si>
+  <si>
+    <t>5c5479fba394015b5e3941e2</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1523,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>

--- a/public/formulario_historico.xlsx
+++ b/public/formulario_historico.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -852,8 +852,8 @@
       <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
-        <v>28</v>
+      <c r="O2">
+        <v>31231</v>
       </c>
       <c r="P2" t="s">
         <v>28</v>
@@ -1109,8 +1109,8 @@
       <c r="N6" t="s">
         <v>32</v>
       </c>
-      <c r="O6" t="s">
-        <v>28</v>
+      <c r="O6">
+        <v>3123</v>
       </c>
       <c r="P6" t="s">
         <v>28</v>
@@ -1174,8 +1174,8 @@
       <c r="N7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" t="s">
-        <v>28</v>
+      <c r="O7">
+        <v>31231</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
@@ -1499,8 +1499,8 @@
       <c r="N12" t="s">
         <v>32</v>
       </c>
-      <c r="O12" t="s">
-        <v>28</v>
+      <c r="O12">
+        <v>3123</v>
       </c>
       <c r="P12" t="s">
         <v>28</v>
@@ -1564,8 +1564,8 @@
       <c r="N13" t="s">
         <v>32</v>
       </c>
-      <c r="O13" t="s">
-        <v>28</v>
+      <c r="O13">
+        <v>11</v>
       </c>
       <c r="P13" t="s">
         <v>28</v>
@@ -1629,8 +1629,8 @@
       <c r="N14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" t="s">
-        <v>28</v>
+      <c r="O14">
+        <v>111</v>
       </c>
       <c r="P14" t="s">
         <v>28</v>
@@ -1694,8 +1694,8 @@
       <c r="N15" t="s">
         <v>32</v>
       </c>
-      <c r="O15" t="s">
-        <v>28</v>
+      <c r="O15">
+        <v>111</v>
       </c>
       <c r="P15" t="s">
         <v>28</v>
